--- a/src/test/resources/WebsiteData.xlsx
+++ b/src/test/resources/WebsiteData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="General_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Test_Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>TestCases</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>DataC</t>
+  </si>
+  <si>
+    <t>TestdATA</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,17 +406,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -424,12 +427,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
